--- a/resultado_correspondencias_10.xlsx
+++ b/resultado_correspondencias_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,441 +462,216 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>16313779748</t>
+          <t>16313779731</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M90105817070</t>
+          <t>M40195216001</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>16142440631</t>
+          <t>16313779730</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CK221195318601</t>
+          <t>M30194920210</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>16142440709</t>
+          <t>16313779733</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CK235235415601</t>
+          <t>M40195216682</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>16313779742</t>
+          <t>16313779740</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>M50295417971</t>
+          <t>M50265416250</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>16313779730</t>
+          <t>16386952147</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>M30194920210</t>
+          <t>L29595514424</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>15913120750</t>
+          <t>16386952137</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CK225085516070</t>
+          <t>L27075516001</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>16258106989</t>
+          <t>16258106991</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>L22985617002</t>
+          <t>L29515517035</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>16258106991</t>
+          <t>16313779647</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>L29515517035</t>
+          <t>L29605418410</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>15913120749</t>
+          <t>16313779649</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CK225085516002</t>
+          <t>L29605619035</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>16313779708</t>
+          <t>16258106989</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>M20295917073</t>
+          <t>L22985617002</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>16142441621</t>
+          <t>16142441553</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>L6010S5517002</t>
+          <t>L29365417035</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>16313779518</t>
+          <t>16142441352</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CK241015118720</t>
+          <t>L22945717002</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>16313779519</t>
+          <t>16142441621</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CK245135217005</t>
+          <t>L6010S5517002</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>16142441552</t>
+          <t>16402637168</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>L29365417002</t>
+          <t>M40195216602</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>16142441619</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>L6010S5517001</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>16313779740</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>M50265416250</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>16142441550</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>L29355318424</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>16313779741</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>M50275814250</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>16313779731</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>M40195216001</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>16258107025</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>M50265416020</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>16313779521</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>CK245235216503</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>16019314991</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>CK22125TD5219001</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>16258106767</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>CK245245415039</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>16313779711</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>M30185616001</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>16313779712</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>M30185616205</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>16258106773</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>CK241015118770</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>16142441545</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>L29355318001</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>16142441553</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>L29365417035</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>16029485460</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>L997S5418001</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
         <v>1</v>
       </c>
     </row>
